--- a/Doc/Web端/融创字典_2.xlsx
+++ b/Doc/Web端/融创字典_2.xlsx
@@ -163,151 +163,152 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>单盆700</t>
+  </si>
+  <si>
+    <t>双盆900</t>
+  </si>
+  <si>
+    <t>双盆1000</t>
+  </si>
+  <si>
+    <t>双盆1200</t>
+  </si>
+  <si>
+    <t>冰箱类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单开门700</t>
+  </si>
+  <si>
+    <t>对开门800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对开门1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灶台宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U型</t>
+  </si>
+  <si>
+    <t>卫生间台盆宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>650</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>750</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马桶宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>750</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盥洗区宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>950</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调匹数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷凝水管位置</t>
+  </si>
+  <si>
+    <t>侧面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨水管位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侧面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门窗对开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栏杆类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃栏杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁艺栏杆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>单盆600</t>
-  </si>
-  <si>
-    <t>单盆700</t>
-  </si>
-  <si>
-    <t>双盆900</t>
-  </si>
-  <si>
-    <t>双盆1000</t>
-  </si>
-  <si>
-    <t>双盆1200</t>
-  </si>
-  <si>
-    <t>冰箱类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单开门700</t>
-  </si>
-  <si>
-    <t>对开门800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对开门1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灶台宽度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫生间类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U型</t>
-  </si>
-  <si>
-    <t>卫生间台盆宽度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>650</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>750</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马桶宽度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>750</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盥洗区宽度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>950</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1050</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调匹数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷凝水管位置</t>
-  </si>
-  <si>
-    <t>侧面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雨水管位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.0P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.0P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侧面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门窗对开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>栏杆类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玻璃栏杆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁艺栏杆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,28 +480,28 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -785,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -808,96 +809,96 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="6" t="s">
         <v>17</v>
       </c>
@@ -907,77 +908,77 @@
       <c r="B16" s="3"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="17"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="16"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="17"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="8">
         <v>4</v>
       </c>
@@ -992,45 +993,45 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="13"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="6" t="s">
         <v>34</v>
       </c>
@@ -1041,271 +1042,293 @@
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
       <c r="C42" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="13"/>
+      <c r="B44" s="15"/>
       <c r="C44" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="6" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="6" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="6" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="6" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="9" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="9" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
+      <c r="B54" s="15"/>
+      <c r="C54" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="6" t="s">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="6" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
       <c r="C59" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
       <c r="C60" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" s="15"/>
+      <c r="C63" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="6" t="s">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="18"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="6" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="18"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="18"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="6" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="6" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
+      <c r="B73" s="15"/>
+      <c r="C73" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B73" s="13"/>
-      <c r="C73" s="6" t="s">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="6" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="17"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="9" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="9" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B82" s="15"/>
+      <c r="C82" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B82" s="13"/>
-      <c r="C82" s="6" t="s">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="6" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="15"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="12"/>
-      <c r="B87" s="12"/>
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
       <c r="C87" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B89" s="10"/>
       <c r="C89" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="9" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="9" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
     <mergeCell ref="A89:A90"/>
     <mergeCell ref="B89:B90"/>
     <mergeCell ref="A2:A9"/>
@@ -1322,28 +1345,6 @@
     <mergeCell ref="A86:A87"/>
     <mergeCell ref="A82:A83"/>
     <mergeCell ref="B82:B83"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B40:B42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/Web端/融创字典_2.xlsx
+++ b/Doc/Web端/融创字典_2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,9 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单盆700</t>
-  </si>
-  <si>
     <t>双盆900</t>
   </si>
   <si>
@@ -179,37 +176,121 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>对开门800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对开门1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灶台宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U型</t>
+  </si>
+  <si>
+    <t>卫生间台盆宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>750</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马桶宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盥洗区宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>950</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调匹数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷凝水管位置</t>
+  </si>
+  <si>
+    <t>后面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨水管位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侧面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门窗对开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栏杆类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单盆600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>单开门700</t>
-  </si>
-  <si>
-    <t>对开门800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对开门1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灶台宽度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫生间类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U型</t>
-  </si>
-  <si>
-    <t>卫生间台盆宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>750</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -217,45 +298,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>750</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马桶宽度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>750</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盥洗区宽度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>950</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1050</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空调匹数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷凝水管位置</t>
-  </si>
-  <si>
     <t>侧面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,42 +306,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>雨水管位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.0P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.0P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>侧面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门窗对开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>栏杆类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>玻璃栏杆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -308,7 +314,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单盆600</t>
+    <t>单盆800</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,9 +486,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -490,18 +508,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -786,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -809,96 +815,96 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="6" t="s">
         <v>17</v>
       </c>
@@ -908,77 +914,77 @@
       <c r="B16" s="3"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="14"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="13"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="14"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="8">
         <v>4</v>
       </c>
@@ -993,45 +999,45 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="15"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="6" t="s">
         <v>34</v>
       </c>
@@ -1042,293 +1048,271 @@
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
       <c r="C42" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="15"/>
+      <c r="B44" s="13"/>
       <c r="C44" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
       <c r="C45" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="6" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="6" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="6" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="9" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="9" t="s">
+      <c r="B54" s="13"/>
+      <c r="C54" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
       <c r="C59" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
       <c r="C60" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" s="13"/>
+      <c r="C63" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B63" s="15"/>
-      <c r="C63" s="6" t="s">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="6" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="16"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="9" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
       <c r="C70" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B73" s="15"/>
+      <c r="A73" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B73" s="13"/>
       <c r="C73" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
       <c r="C74" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="17"/>
-      <c r="B78" s="17"/>
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
       <c r="C78" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="17"/>
-      <c r="B79" s="17"/>
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
       <c r="C79" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
-      <c r="B80" s="11"/>
+      <c r="A80" s="12"/>
+      <c r="B80" s="12"/>
       <c r="C80" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B82" s="15"/>
+      <c r="A82" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B82" s="13"/>
       <c r="C82" s="6" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="16"/>
-      <c r="B83" s="16"/>
+      <c r="A83" s="15"/>
+      <c r="B83" s="15"/>
       <c r="C83" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
+      <c r="A87" s="12"/>
+      <c r="B87" s="12"/>
       <c r="C87" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B89" s="10"/>
       <c r="C89" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
+      <c r="A90" s="12"/>
+      <c r="B90" s="12"/>
       <c r="C90" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
     <mergeCell ref="A89:A90"/>
     <mergeCell ref="B89:B90"/>
     <mergeCell ref="A2:A9"/>
@@ -1345,6 +1329,28 @@
     <mergeCell ref="A86:A87"/>
     <mergeCell ref="A82:A83"/>
     <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/Web端/融创字典_2.xlsx
+++ b/Doc/Web端/融创字典_2.xlsx
@@ -348,7 +348,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,6 +382,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,7 +458,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -486,29 +492,32 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -792,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -815,96 +824,96 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="6" t="s">
         <v>17</v>
       </c>
@@ -914,77 +923,77 @@
       <c r="B16" s="3"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="17"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="18"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="8">
         <v>4</v>
       </c>
@@ -999,45 +1008,45 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="13"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="6" t="s">
         <v>34</v>
       </c>
@@ -1052,52 +1061,52 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
       <c r="C42" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="13"/>
+      <c r="B44" s="15"/>
       <c r="C44" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="6" t="s">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
       <c r="C47" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
       <c r="C48" s="6" t="s">
         <v>41</v>
       </c>
@@ -1112,31 +1121,31 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
       <c r="C51" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
       <c r="C52" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B54" s="13"/>
+      <c r="B54" s="15"/>
       <c r="C54" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
       <c r="C55" s="6" t="s">
         <v>47</v>
       </c>
@@ -1151,52 +1160,52 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
       <c r="C59" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
       <c r="C60" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B63" s="13"/>
+      <c r="B63" s="15"/>
       <c r="C63" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
+      <c r="A64" s="18"/>
+      <c r="B64" s="18"/>
       <c r="C64" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
+      <c r="A65" s="18"/>
+      <c r="B65" s="18"/>
       <c r="C65" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
+      <c r="A66" s="18"/>
+      <c r="B66" s="18"/>
       <c r="C66" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
-      <c r="B67" s="15"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
       <c r="C67" s="6" t="s">
         <v>53</v>
       </c>
@@ -1211,24 +1220,24 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
       <c r="C70" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B73" s="13"/>
+      <c r="B73" s="15"/>
       <c r="C73" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
-      <c r="B74" s="15"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
       <c r="C74" s="6" t="s">
         <v>57</v>
       </c>
@@ -1243,38 +1252,38 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
+      <c r="A78" s="17"/>
+      <c r="B78" s="17"/>
       <c r="C78" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
       <c r="C79" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
       <c r="C80" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B82" s="13"/>
+      <c r="B82" s="15"/>
       <c r="C82" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="15"/>
-      <c r="B83" s="15"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
       <c r="C83" s="6" t="s">
         <v>75</v>
       </c>
@@ -1289,8 +1298,8 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="12"/>
-      <c r="B87" s="12"/>
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
       <c r="C87" s="9" t="s">
         <v>60</v>
       </c>
@@ -1305,14 +1314,36 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
-      <c r="B90" s="12"/>
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
       <c r="C90" s="9" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
     <mergeCell ref="A89:A90"/>
     <mergeCell ref="B89:B90"/>
     <mergeCell ref="A2:A9"/>
@@ -1329,31 +1360,9 @@
     <mergeCell ref="A86:A87"/>
     <mergeCell ref="A82:A83"/>
     <mergeCell ref="B82:B83"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B40:B42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>